--- a/0.说明文件与教程/支线规划表.xlsx
+++ b/0.说明文件与教程/支线规划表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>注：所有等级区间安排不考虑刷等级
 剧情类支线的难度不必严格对应等级阶段</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>铁枪会支线</t>
+  </si>
+  <si>
+    <t>废城</t>
   </si>
   <si>
     <t>彩蛋支线</t>
@@ -132,6 +135,9 @@
     <t>27开启：钉子→交差
 （简单大学城周边+简单堕落城下水道入口）
 难度较高因此延伸到23级</t>
+  </si>
+  <si>
+    <t>废城支线</t>
   </si>
   <si>
     <t>19开启：挑战任务→毒死硬化
@@ -168,13 +174,22 @@
     <t>23——25</t>
   </si>
   <si>
+    <t>地铁站1期</t>
+  </si>
+  <si>
     <t>25——28（63：击溃巨龙鳞甲）</t>
   </si>
   <si>
+    <t>地铁站2期</t>
+  </si>
+  <si>
     <t>63开启：强化教学</t>
   </si>
   <si>
     <t>28——30（67：不败传说的破灭！）</t>
+  </si>
+  <si>
+    <t>天网1期</t>
   </si>
   <si>
     <t>67开启：机器价值→信号源
@@ -189,6 +204,9 @@
   <si>
     <t>76开启：紧急订单→何谓通缉令？
 （简单僵尸逆袭+修罗深入禁区）</t>
+  </si>
+  <si>
+    <t>天网2期</t>
   </si>
   <si>
     <t>32——35</t>
@@ -210,7 +228,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +238,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,13 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,12 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,12 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,137 +756,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,28 +911,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,12 +1268,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1246,13 +1286,13 @@
     <col min="6" max="6" width="16.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="26.8240740740741" customWidth="1"/>
     <col min="11" max="11" width="27.8888888888889" customWidth="1"/>
-    <col min="12" max="15" width="28.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="26.5555555555556" customWidth="1"/>
-    <col min="17" max="17" width="24.7592592592593" customWidth="1"/>
-    <col min="18" max="18" width="29.037037037037" customWidth="1"/>
+    <col min="12" max="16" width="28.2222222222222" customWidth="1"/>
+    <col min="17" max="17" width="26.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="24.7592592592593" customWidth="1"/>
+    <col min="19" max="19" width="29.037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="67" customHeight="1" spans="1:18">
+    <row r="1" ht="67" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,11 +1315,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="25.8" customHeight="1" spans="1:18">
+    <row r="2" ht="25.8" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1334,10 +1375,13 @@
       <c r="R2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1354,14 +1398,15 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" ht="54.6" customHeight="1" spans="1:17">
+    <row r="4" ht="54.6" customHeight="1" spans="1:18">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1374,18 +1419,19 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="2"/>
     </row>
-    <row r="5" ht="48" customHeight="1" spans="1:17">
+    <row r="5" ht="48" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1398,24 +1444,25 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2"/>
     </row>
-    <row r="6" ht="95.4" customHeight="1" spans="1:17">
+    <row r="6" ht="95.4" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1423,21 +1470,24 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" ht="58.2" customHeight="1" spans="1:17">
+    <row r="7" ht="58.2" customHeight="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1446,20 +1496,21 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="15" t="s">
-        <v>37</v>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" ht="32.4" customHeight="1" spans="1:17">
+    <row r="8" ht="32.4" customHeight="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1470,24 +1521,27 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="15" t="s">
-        <v>39</v>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1495,19 +1549,22 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="15"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="17"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:17">
+    <row r="10" ht="30" customHeight="1" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1516,14 +1573,15 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="2"/>
     </row>
-    <row r="11" ht="25.2" customHeight="1" spans="1:17">
+    <row r="11" ht="25.2" customHeight="1" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1532,44 +1590,50 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="15" t="s">
-        <v>45</v>
+      <c r="O11" s="2"/>
+      <c r="P11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" ht="43.8" customHeight="1" spans="1:17">
+    <row r="12" ht="43.8" customHeight="1" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1578,7 +1642,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1586,10 +1650,11 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1598,7 +1663,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1606,10 +1671,11 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1626,14 +1692,16 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
